--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" s="9">
         <v>40</v>
@@ -711,7 +711,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="9">
         <v>40</v>
@@ -721,23 +721,37 @@
       </c>
       <c r="I2" s="11">
         <f>SUM(B2:H2)</f>
-        <v>175</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="12">
+        <v>40</v>
+      </c>
+      <c r="C3" s="13">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>40</v>
+      </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I12" si="0">SUM(B3:H3)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
@@ -890,23 +904,23 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B2:B12)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" ref="C13:I13" si="1">SUM(C2:C12)</f>
-        <v>15</v>
+        <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
+        <v>80</v>
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
@@ -914,11 +928,11 @@
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>175</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,14 +744,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H3" s="14">
         <v>40</v>
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I12" si="0">SUM(B3:H3)</f>
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
@@ -924,7 +924,7 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,13 +758,27 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,16 +788,30 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="12">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13">
+        <v>40</v>
+      </c>
+      <c r="E5" s="13">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14">
+        <v>40</v>
+      </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
@@ -918,19 +932,19 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B2:B12)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C13" s="19">
         <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
@@ -938,15 +952,15 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>500</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,16 +818,30 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <v>40</v>
+      </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
@@ -936,15 +950,15 @@
       </c>
       <c r="C13" s="19">
         <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
@@ -952,15 +966,15 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>740</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13">
         <v>40</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
@@ -946,7 +946,7 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B2:B12)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C13" s="19">
         <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
@@ -974,7 +974,7 @@
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>940</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Alex</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Total pr uge</t>
+  </si>
+  <si>
+    <t>Forbrug</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -333,11 +336,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -358,6 +374,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,7 +684,7 @@
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -693,8 +712,11 @@
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -723,8 +745,11 @@
         <f>SUM(B2:H2)</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K2" s="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -753,8 +778,11 @@
         <f t="shared" ref="I3:I12" si="0">SUM(B3:H3)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K3" s="22">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -783,8 +811,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K4" s="22">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -813,8 +844,11 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K5" s="22">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -843,8 +877,11 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K6" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -859,8 +896,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K7" s="22">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -875,8 +915,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K8" s="22">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -891,8 +934,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K9" s="22">
+        <v>243.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -907,8 +953,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -923,8 +970,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -939,8 +987,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -975,6 +1024,10 @@
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
         <v>980</v>
+      </c>
+      <c r="K13" s="2">
+        <f>SUM(K2:K12)</f>
+        <v>880.34999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,16 +885,20 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12">
+        <v>40</v>
+      </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>40</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K7" s="22">
         <v>179.9</v>
@@ -953,7 +957,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
@@ -995,7 +1001,7 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B2:B12)</f>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C13" s="19">
         <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
@@ -1003,7 +1009,7 @@
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
@@ -1023,11 +1029,11 @@
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>980</v>
+        <v>1060</v>
       </c>
       <c r="K13" s="2">
         <f>SUM(K2:K12)</f>
-        <v>880.34999999999991</v>
+        <v>959.34999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -888,17 +888,23 @@
       <c r="B7" s="12">
         <v>40</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="13">
+        <v>40</v>
+      </c>
       <c r="D7" s="13">
         <v>40</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="13">
+        <v>40</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K7" s="22">
         <v>179.9</v>
@@ -1005,7 +1011,7 @@
       </c>
       <c r="C13" s="19">
         <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
@@ -1013,7 +1019,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
@@ -1029,7 +1035,7 @@
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>1060</v>
+        <v>1140</v>
       </c>
       <c r="K13" s="2">
         <f>SUM(K2:K12)</f>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,11 +900,15 @@
       <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="13">
+        <v>40</v>
+      </c>
+      <c r="H7" s="14">
+        <v>40</v>
+      </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K7" s="22">
         <v>179.9</v>
@@ -982,7 +986,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="22">
+        <v>236.15</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
@@ -1027,19 +1033,19 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>1140</v>
+        <v>1220</v>
       </c>
       <c r="K13" s="2">
         <f>SUM(K2:K12)</f>
-        <v>959.34999999999991</v>
+        <v>1195.5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,11 +923,13 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <v>40</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K8" s="22">
         <v>172.8</v>
@@ -1033,7 +1035,7 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
@@ -1041,7 +1043,7 @@
       </c>
       <c r="I13" s="19">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="K13" s="2">
         <f>SUM(K2:K12)</f>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -214,7 +214,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -223,13 +223,11 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -242,19 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -319,19 +304,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -353,29 +325,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +644,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,7 +715,7 @@
         <f>SUM(B2:H2)</f>
         <v>260</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>46</v>
       </c>
     </row>
@@ -778,7 +748,7 @@
         <f t="shared" ref="I3:I12" si="0">SUM(B3:H3)</f>
         <v>240</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>172.5</v>
       </c>
     </row>
@@ -811,7 +781,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>23.95</v>
       </c>
     </row>
@@ -844,7 +814,7 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -877,7 +847,7 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>22</v>
       </c>
     </row>
@@ -910,7 +880,7 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>179.9</v>
       </c>
     </row>
@@ -918,20 +888,32 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13">
+        <v>40</v>
+      </c>
+      <c r="E8" s="13">
+        <v>40</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
       <c r="G8" s="13">
         <v>40</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14">
+        <v>40</v>
+      </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K8" s="22">
+        <v>200</v>
+      </c>
+      <c r="K8" s="20">
         <v>172.8</v>
       </c>
     </row>
@@ -939,18 +921,32 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
+        <v>40</v>
+      </c>
+      <c r="K9" s="20">
         <v>243.3</v>
       </c>
     </row>
@@ -958,18 +954,32 @@
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>79</v>
       </c>
     </row>
@@ -977,18 +987,32 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>236.15</v>
       </c>
     </row>
@@ -996,58 +1020,74 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="18">
+        <v>233.8</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <f>SUM(B2:B12)</f>
         <v>200</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <f t="shared" ref="C13:H13" si="1">SUM(C2:C12)</f>
-        <v>200</v>
-      </c>
-      <c r="D13" s="19">
+        <v>240</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E13" s="19">
+        <v>240</v>
+      </c>
+      <c r="E13" s="17">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F13" s="19">
+        <v>280</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I13" s="19">
+        <v>240</v>
+      </c>
+      <c r="I13" s="17">
         <f>IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(Something is wrong))</f>
-        <v>1260</v>
+        <v>1460</v>
       </c>
       <c r="K13" s="2">
-        <f>SUM(K2:K12)</f>
-        <v>1195.5</v>
+        <f>SUM(K2:K12)+SUM(L2:L12)</f>
+        <v>1429.3</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!)</definedName>
-    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!)</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!))</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -267,13 +267,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
@@ -313,10 +312,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.89411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="10.8980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.93725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -344,409 +343,409 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="F2" s="8" t="n">
+      <c r="B2" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="H2" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="n">
+      <c r="G2" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9" t="n">
         <f aca="false">SUM(B2:H2)</f>
         <v>260</v>
       </c>
-      <c r="K2" s="11" t="n">
+      <c r="K2" s="10" t="n">
         <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C3" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" s="14" t="n">
-        <v>40</v>
-      </c>
-      <c r="I3" s="10" t="n">
+      <c r="B3" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9" t="n">
         <f aca="false">SUM(B3:H3)</f>
         <v>240</v>
       </c>
-      <c r="K3" s="15" t="n">
+      <c r="K3" s="14" t="n">
         <v>172.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
+      <c r="B4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
         <f aca="false">SUM(B4:H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="n">
+      <c r="K4" s="14" t="n">
         <v>23.95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" s="10" t="n">
+      <c r="B5" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="n">
         <f aca="false">SUM(B5:H5)</f>
         <v>240</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" s="14" t="n">
         <v>19.9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>40</v>
-      </c>
-      <c r="I6" s="10" t="n">
+      <c r="B6" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9" t="n">
         <f aca="false">SUM(B6:H6)</f>
         <v>240</v>
       </c>
-      <c r="K6" s="15" t="n">
+      <c r="K6" s="14" t="n">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>40</v>
-      </c>
-      <c r="I7" s="10" t="n">
+      <c r="B7" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9" t="n">
         <f aca="false">SUM(B7:H7)</f>
         <v>240</v>
       </c>
-      <c r="K7" s="15" t="n">
+      <c r="K7" s="14" t="n">
         <v>179.9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H8" s="14" t="n">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10" t="n">
+      <c r="B8" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9" t="n">
         <f aca="false">SUM(B8:H8)</f>
-        <v>200</v>
-      </c>
-      <c r="K8" s="15" t="n">
+        <v>240</v>
+      </c>
+      <c r="K8" s="14" t="n">
         <v>172.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="n">
+      <c r="B9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
         <f aca="false">SUM(B9:H9)</f>
         <v>160</v>
       </c>
-      <c r="K9" s="15" t="n">
+      <c r="K9" s="14" t="n">
         <v>243.3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="n">
+      <c r="B10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
         <f aca="false">SUM(B10:H10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="14" t="n">
         <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="n">
+      <c r="B11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
         <f aca="false">SUM(B11:H11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="n">
+      <c r="K11" s="14" t="n">
         <v>236.15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="n">
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
         <f aca="false">SUM(B12:H12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="17" t="n">
         <v>233.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <f aca="false">SUM(B2:B12)</f>
-        <v>200</v>
-      </c>
-      <c r="C13" s="10" t="n">
+        <v>240</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <f aca="false">SUM(C2:C12)</f>
         <v>280</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="9" t="n">
         <f aca="false">SUM(D2:D12)</f>
         <v>280</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">SUM(E2:E12)</f>
         <v>280</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="9" t="n">
         <f aca="false">SUM(F2:F12)</f>
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="9" t="n">
         <f aca="false">SUM(G2:G12)</f>
         <v>280</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="9" t="n">
         <f aca="false">SUM(H2:H12)</f>
         <v>240</v>
       </c>
-      <c r="I13" s="20" t="e">
+      <c r="I13" s="19" t="e">
         <f aca="false">IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(something is wrong))</f>
         <v>#VALUE!</v>
       </c>
@@ -778,12 +777,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -803,12 +802,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!))</definedName>
-    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!)))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!)))</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -305,17 +305,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.93725490196078"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="10.9411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98039215686275"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="10.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.721568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -382,6 +382,9 @@
       <c r="K2" s="10" t="n">
         <v>46</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
       <c r="A3" s="5" t="s">
@@ -598,7 +601,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>40</v>
@@ -608,7 +611,7 @@
       </c>
       <c r="I9" s="9" t="n">
         <f aca="false">SUM(B9:H9)</f>
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="K9" s="14" t="n">
         <v>243.3</v>
@@ -735,7 +738,7 @@
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">SUM(F2:F12)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G13" s="9" t="n">
         <f aca="false">SUM(G2:G12)</f>
@@ -751,7 +754,7 @@
       </c>
       <c r="K13" s="1" t="n">
         <f aca="false">SUM(K2:K12)+SUM(L2:L12)</f>
-        <v>1429.3</v>
+        <v>1498.3</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +780,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -802,7 +805,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!)))</definedName>
-    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!)))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!))))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!))))</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -312,10 +312,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="10.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.721568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.0274509803922"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.7725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>40</v>
@@ -607,11 +607,11 @@
         <v>40</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9" t="n">
         <f aca="false">SUM(B9:H9)</f>
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="K9" s="14" t="n">
         <v>243.3</v>
@@ -622,13 +622,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>0</v>
@@ -637,14 +637,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="9" t="n">
         <f aca="false">SUM(B10:H10)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K10" s="14" t="n">
         <v>79</v>
@@ -722,15 +722,15 @@
       </c>
       <c r="B13" s="9" t="n">
         <f aca="false">SUM(B2:B12)</f>
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C13" s="9" t="n">
         <f aca="false">SUM(C2:C12)</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D13" s="9" t="n">
         <f aca="false">SUM(D2:D12)</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E13" s="9" t="n">
         <f aca="false">SUM(E2:E12)</f>
@@ -742,11 +742,11 @@
       </c>
       <c r="G13" s="9" t="n">
         <f aca="false">SUM(G2:G12)</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="H13" s="9" t="n">
         <f aca="false">SUM(H2:H12)</f>
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I13" s="19" t="e">
         <f aca="false">IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(something is wrong))</f>
@@ -780,7 +780,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -805,7 +805,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!))))</definedName>
-    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!))))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!))))))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!))))))</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -312,10 +312,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.0274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.1137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.878431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.74901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         <v>40</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I10" s="9" t="n">
         <f aca="false">SUM(B10:H10)</f>
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K10" s="14" t="n">
         <v>79</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="E13" s="9" t="n">
         <f aca="false">SUM(E2:E12)</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">SUM(F2:F12)</f>
@@ -746,7 +746,7 @@
       </c>
       <c r="H13" s="9" t="n">
         <f aca="false">SUM(H2:H12)</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="I13" s="19" t="e">
         <f aca="false">IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(something is wrong))</f>
@@ -780,7 +780,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.74901960784314"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -805,7 +805,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.74901960784314"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/trunk/Regnskab/Madordning.xlsx
+++ b/trunk/Regnskab/Madordning.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!))))))</definedName>
-    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!))))))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_0" vbProcedure="false">SUM(#REF!)))))))</definedName>
+    <definedName function="false" hidden="false" name="__shared_1_0_1" vbProcedure="false">SUM(#REF!)))))))</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -312,10 +312,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.1137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.878431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -655,29 +655,29 @@
         <v>19</v>
       </c>
       <c r="B11" s="11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I11" s="9" t="n">
         <f aca="false">SUM(B11:H11)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K11" s="14" t="n">
         <v>236.15</v>
@@ -722,19 +722,19 @@
       </c>
       <c r="B13" s="9" t="n">
         <f aca="false">SUM(B2:B12)</f>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C13" s="9" t="n">
         <f aca="false">SUM(C2:C12)</f>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D13" s="9" t="n">
         <f aca="false">SUM(D2:D12)</f>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E13" s="9" t="n">
         <f aca="false">SUM(E2:E12)</f>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">SUM(F2:F12)</f>
@@ -742,11 +742,11 @@
       </c>
       <c r="G13" s="9" t="n">
         <f aca="false">SUM(G2:G12)</f>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="H13" s="9" t="n">
         <f aca="false">SUM(H2:H12)</f>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="I13" s="19" t="e">
         <f aca="false">IF(SUM(I2:I12)=SUM(B13:H13),(SUM(I2:I12)),(something is wrong))</f>
@@ -780,7 +780,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.7843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -805,7 +805,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.7843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
